--- a/data/case1/11/Q_device_14.xlsx
+++ b/data/case1/11/Q_device_14.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.02353146423189878</v>
+        <v>0.050267379504308984</v>
       </c>
       <c r="B1" s="0">
-        <v>0.02353146412585632</v>
+        <v>-0.050267379563267697</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.051696960929579087</v>
+        <v>-0.0077125121154475052</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.051696960995496304</v>
+        <v>0.0077125120165095996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0036323410569046306</v>
+        <v>-0.051993854651702823</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.003632341141597442</v>
+        <v>0.051993854582379387</v>
       </c>
     </row>
     <row r="4">
